--- a/Documents/2016-2017-Java-PhieuVanDap-DAQuanLyBanHang.xlsx
+++ b/Documents/2016-2017-Java-PhieuVanDap-DAQuanLyBanHang.xlsx
@@ -495,6 +495,9 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -529,9 +532,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1729,42 +1729,43 @@
   <dimension ref="A1:IV45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="256" width="16.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
     </row>
     <row r="2" spans="1:7" ht="25.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="31"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="32"/>
     </row>
     <row r="3" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
@@ -1802,7 +1803,7 @@
         <v>49</v>
       </c>
       <c r="C5" s="9"/>
-      <c r="D5" s="35">
+      <c r="D5" s="23">
         <v>0.5</v>
       </c>
       <c r="E5" s="9"/>
@@ -1817,7 +1818,7 @@
         <v>50</v>
       </c>
       <c r="C6" s="9"/>
-      <c r="D6" s="35">
+      <c r="D6" s="23">
         <v>0.5</v>
       </c>
       <c r="E6" s="9"/>
@@ -1897,39 +1898,41 @@
       <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:7" ht="36.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="26"/>
-      <c r="B13" s="27" t="s">
+      <c r="A13" s="27"/>
+      <c r="B13" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="9"/>
-      <c r="E13" s="34">
+      <c r="E13" s="35">
         <v>0.5</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="9">
+        <v>0.5</v>
+      </c>
       <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
       <c r="C14" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="9"/>
-      <c r="E14" s="25"/>
+      <c r="E14" s="26"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="25"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="34">
+      <c r="C15" s="27"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="35">
         <v>0.25</v>
       </c>
       <c r="F15" s="9">
@@ -1938,24 +1941,24 @@
       <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="25"/>
+      <c r="A16" s="26"/>
       <c r="B16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="25"/>
-      <c r="B17" s="24" t="s">
+      <c r="A17" s="26"/>
+      <c r="B17" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="33">
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="34">
         <v>1</v>
       </c>
       <c r="F17" s="9">
@@ -1964,46 +1967,46 @@
       <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="25"/>
-      <c r="B18" s="32"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="33"/>
       <c r="C18" s="21" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="25"/>
+      <c r="E18" s="26"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" ht="36.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
       <c r="C19" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="25"/>
+      <c r="E19" s="26"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
     </row>
     <row r="20" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
       <c r="C20" s="21" t="s">
         <v>24</v>
       </c>
       <c r="D20" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="25"/>
+      <c r="E20" s="26"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="25"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="6" t="s">
         <v>26</v>
       </c>
@@ -2016,7 +2019,7 @@
       <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:7" ht="36.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="25"/>
+      <c r="A22" s="26"/>
       <c r="B22" s="6" t="s">
         <v>27</v>
       </c>
@@ -2031,7 +2034,7 @@
       <c r="G22" s="9"/>
     </row>
     <row r="23" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="25"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="6" t="s">
         <v>28</v>
       </c>
@@ -2046,7 +2049,7 @@
       <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="25"/>
+      <c r="A24" s="26"/>
       <c r="B24" s="6" t="s">
         <v>29</v>
       </c>

--- a/Documents/2016-2017-Java-PhieuVanDap-DAQuanLyBanHang.xlsx
+++ b/Documents/2016-2017-Java-PhieuVanDap-DAQuanLyBanHang.xlsx
@@ -1729,8 +1729,8 @@
   <dimension ref="A1:IV45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1894,7 +1894,9 @@
       <c r="E12" s="19">
         <v>2.75</v>
       </c>
-      <c r="F12" s="9"/>
+      <c r="F12" s="9">
+        <v>2.75</v>
+      </c>
       <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:7" ht="36.4" customHeight="1" x14ac:dyDescent="0.2">
@@ -2015,7 +2017,9 @@
       <c r="E21" s="20">
         <v>0.25</v>
       </c>
-      <c r="F21" s="9"/>
+      <c r="F21" s="9">
+        <v>0.25</v>
+      </c>
       <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:7" ht="36.4" customHeight="1" x14ac:dyDescent="0.2">
@@ -2073,7 +2077,9 @@
       <c r="E25" s="19">
         <v>3.25</v>
       </c>
-      <c r="F25" s="9"/>
+      <c r="F25" s="9">
+        <v>1</v>
+      </c>
       <c r="G25" s="9"/>
     </row>
     <row r="26" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
@@ -2118,7 +2124,9 @@
       <c r="E28" s="20">
         <v>0.25</v>
       </c>
-      <c r="F28" s="9"/>
+      <c r="F28" s="9">
+        <v>0.25</v>
+      </c>
       <c r="G28" s="9"/>
     </row>
     <row r="29" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
@@ -2242,7 +2250,9 @@
       <c r="E36" s="19">
         <v>3.5</v>
       </c>
-      <c r="F36" s="9"/>
+      <c r="F36" s="9">
+        <v>0.25</v>
+      </c>
       <c r="G36" s="9"/>
     </row>
     <row r="37" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
@@ -2294,7 +2304,9 @@
       <c r="E40" s="20">
         <v>0.25</v>
       </c>
-      <c r="F40" s="9"/>
+      <c r="F40" s="9">
+        <v>0.25</v>
+      </c>
       <c r="G40" s="9"/>
     </row>
     <row r="41" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
@@ -2346,7 +2358,9 @@
       <c r="E44" s="19">
         <v>0.5</v>
       </c>
-      <c r="F44" s="9"/>
+      <c r="F44" s="9">
+        <v>0.5</v>
+      </c>
       <c r="G44" s="9"/>
     </row>
     <row r="45" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">

--- a/Documents/2016-2017-Java-PhieuVanDap-DAQuanLyBanHang.xlsx
+++ b/Documents/2016-2017-Java-PhieuVanDap-DAQuanLyBanHang.xlsx
@@ -1730,7 +1730,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F41" sqref="F41"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2078,7 +2078,7 @@
         <v>3.25</v>
       </c>
       <c r="F25" s="9">
-        <v>1</v>
+        <v>2.75</v>
       </c>
       <c r="G25" s="9"/>
     </row>
@@ -2109,7 +2109,9 @@
       <c r="E27" s="22">
         <v>0.5</v>
       </c>
-      <c r="F27" s="9"/>
+      <c r="F27" s="9">
+        <v>0.5</v>
+      </c>
       <c r="G27" s="9"/>
     </row>
     <row r="28" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
@@ -2141,7 +2143,9 @@
       <c r="E29" s="22">
         <v>0.5</v>
       </c>
-      <c r="F29" s="9"/>
+      <c r="F29" s="9">
+        <v>0.5</v>
+      </c>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
@@ -2190,7 +2194,9 @@
       <c r="E32" s="20">
         <v>0.25</v>
       </c>
-      <c r="F32" s="9"/>
+      <c r="F32" s="9">
+        <v>0.25</v>
+      </c>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
@@ -2237,7 +2243,9 @@
       <c r="E35" s="22">
         <v>0.5</v>
       </c>
-      <c r="F35" s="9"/>
+      <c r="F35" s="9">
+        <v>0.5</v>
+      </c>
       <c r="G35" s="9"/>
     </row>
     <row r="36" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
@@ -2251,7 +2259,7 @@
         <v>3.5</v>
       </c>
       <c r="F36" s="9">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
       <c r="G36" s="9"/>
     </row>
@@ -2265,7 +2273,9 @@
       <c r="E37" s="22">
         <v>0.75</v>
       </c>
-      <c r="F37" s="9"/>
+      <c r="F37" s="9">
+        <v>0.75</v>
+      </c>
       <c r="G37" s="9"/>
     </row>
     <row r="38" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
@@ -2278,7 +2288,9 @@
       <c r="E38" s="22">
         <v>0.75</v>
       </c>
-      <c r="F38" s="9"/>
+      <c r="F38" s="9">
+        <v>0.75</v>
+      </c>
       <c r="G38" s="9"/>
     </row>
     <row r="39" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
@@ -2345,7 +2357,9 @@
       <c r="E43" s="22">
         <v>0.75</v>
       </c>
-      <c r="F43" s="9"/>
+      <c r="F43" s="9">
+        <v>0.75</v>
+      </c>
       <c r="G43" s="9"/>
     </row>
     <row r="44" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
@@ -2358,9 +2372,7 @@
       <c r="E44" s="19">
         <v>0.5</v>
       </c>
-      <c r="F44" s="9">
-        <v>0.5</v>
-      </c>
+      <c r="F44" s="9"/>
       <c r="G44" s="9"/>
     </row>
     <row r="45" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
@@ -2373,7 +2385,9 @@
       <c r="E45" s="19">
         <v>10</v>
       </c>
-      <c r="F45" s="9"/>
+      <c r="F45" s="9">
+        <v>8</v>
+      </c>
       <c r="G45" s="9"/>
     </row>
   </sheetData>

--- a/Documents/2016-2017-Java-PhieuVanDap-DAQuanLyBanHang.xlsx
+++ b/Documents/2016-2017-Java-PhieuVanDap-DAQuanLyBanHang.xlsx
@@ -1729,8 +1729,8 @@
   <dimension ref="A1:IV45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1802,7 +1802,9 @@
       <c r="B5" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="9"/>
+      <c r="C5" s="9">
+        <v>43</v>
+      </c>
       <c r="D5" s="23">
         <v>0.5</v>
       </c>
@@ -1817,7 +1819,9 @@
       <c r="B6" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="9"/>
+      <c r="C6" s="9">
+        <v>36</v>
+      </c>
       <c r="D6" s="23">
         <v>0.5</v>
       </c>
@@ -2078,7 +2082,7 @@
         <v>3.25</v>
       </c>
       <c r="F25" s="9">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="G25" s="9"/>
     </row>
@@ -2194,9 +2198,7 @@
       <c r="E32" s="20">
         <v>0.25</v>
       </c>
-      <c r="F32" s="9">
-        <v>0.25</v>
-      </c>
+      <c r="F32" s="9"/>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
@@ -2259,7 +2261,7 @@
         <v>3.5</v>
       </c>
       <c r="F36" s="9">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="G36" s="9"/>
     </row>
@@ -2331,7 +2333,9 @@
       <c r="E41" s="22">
         <v>0.5</v>
       </c>
-      <c r="F41" s="9"/>
+      <c r="F41" s="9">
+        <v>0.5</v>
+      </c>
       <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
@@ -2344,7 +2348,9 @@
       <c r="E42" s="20">
         <v>0.25</v>
       </c>
-      <c r="F42" s="9"/>
+      <c r="F42" s="9">
+        <v>0.25</v>
+      </c>
       <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
@@ -2372,7 +2378,9 @@
       <c r="E44" s="19">
         <v>0.5</v>
       </c>
-      <c r="F44" s="9"/>
+      <c r="F44" s="9">
+        <v>0.5</v>
+      </c>
       <c r="G44" s="9"/>
     </row>
     <row r="45" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
@@ -2386,7 +2394,7 @@
         <v>10</v>
       </c>
       <c r="F45" s="9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G45" s="9"/>
     </row>
